--- a/assets/Data1.xlsx
+++ b/assets/Data1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\javas\BotAmin\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AminAbvaal\Desktop\javas\kasri\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11710,16 +11710,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>52647</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>58187</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11740,16 +11740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76198</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>408709</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>13853</xdr:rowOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11770,16 +11770,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>270167</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>20784</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>422567</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>36024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>159328</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>62348</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11802,16 +11802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>340822</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>51261</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>295102</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>127460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>541713</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>155169</xdr:rowOff>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12100,11 +12100,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CK55" sqref="CK55"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="BC36" sqref="BC36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="7" max="7" width="10.15625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.15625" bestFit="1" customWidth="1"/>
@@ -12114,7 +12114,7 @@
     <col min="63" max="63" width="8.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="2" customFormat="1" ht="28.8" customHeight="1">
+    <row r="1" spans="1:72" s="2" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="G1" s="2">
         <v>2016</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>1000</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>925</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>310.2</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>886</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>308.89999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>862</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>309.10000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:72">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>850</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>310.10000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>849</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>310.10000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>828</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>311.89999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:72">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>816</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>314.10000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:72">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <v>773</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>317.2</v>
       </c>
     </row>
-    <row r="15" spans="1:72">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <v>700</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>318.3</v>
       </c>
     </row>
-    <row r="16" spans="1:72">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <v>575</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>323.2</v>
       </c>
     </row>
-    <row r="17" spans="2:72">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <v>571</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>323.60000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:72">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <v>568</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>322.2</v>
       </c>
     </row>
-    <row r="19" spans="2:72">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <v>561</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="2:72">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <v>539</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>327.10000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:72">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <v>536</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>328.4</v>
       </c>
     </row>
-    <row r="22" spans="2:72">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
         <v>500</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>328.9</v>
       </c>
     </row>
-    <row r="23" spans="2:72">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
         <v>473</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>331.3</v>
       </c>
     </row>
-    <row r="24" spans="2:72">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
         <v>467</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>331.3</v>
       </c>
     </row>
-    <row r="25" spans="2:72">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B25">
         <v>402</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>332.9</v>
       </c>
     </row>
-    <row r="26" spans="2:72">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B26">
         <v>400</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>337.4</v>
       </c>
     </row>
-    <row r="27" spans="2:72">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <v>352</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>338.3</v>
       </c>
     </row>
-    <row r="28" spans="2:72">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B28">
         <v>300</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>344.1</v>
       </c>
     </row>
-    <row r="29" spans="2:72">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B29">
         <v>297</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>353.2</v>
       </c>
     </row>
-    <row r="30" spans="2:72">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B30">
         <v>287</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>359.5</v>
       </c>
     </row>
-    <row r="31" spans="2:72">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B31">
         <v>260</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>370.1</v>
       </c>
     </row>
-    <row r="32" spans="2:72">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.55000000000000004">
       <c r="B32">
         <v>250</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>327.10000000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:47">
+    <row r="33" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B33">
         <v>222</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="2:47">
+    <row r="34" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B34">
         <v>200</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>328.5</v>
       </c>
     </row>
-    <row r="35" spans="2:47">
+    <row r="35" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
         <v>191</v>
       </c>
@@ -17771,7 +17771,7 @@
         <v>330.5</v>
       </c>
     </row>
-    <row r="36" spans="2:47">
+    <row r="36" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B36">
         <v>186</v>
       </c>
@@ -17881,7 +17881,7 @@
         <v>331.7</v>
       </c>
     </row>
-    <row r="37" spans="2:47">
+    <row r="37" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B37">
         <v>152</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>338.7</v>
       </c>
     </row>
-    <row r="38" spans="2:47">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B38">
         <v>150</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>340.9</v>
       </c>
     </row>
-    <row r="39" spans="2:47">
+    <row r="39" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B39">
         <v>148</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>342.6</v>
       </c>
     </row>
-    <row r="40" spans="2:47">
+    <row r="40" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B40">
         <v>136</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="2:47">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B41">
         <v>120</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>355.4</v>
       </c>
     </row>
-    <row r="42" spans="2:47">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B42">
         <v>113</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>357.8</v>
       </c>
     </row>
-    <row r="43" spans="2:47">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B43">
         <v>110</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>400.2</v>
       </c>
     </row>
-    <row r="44" spans="2:47">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B44">
         <v>100</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>401.7</v>
       </c>
     </row>
-    <row r="45" spans="2:47">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B45">
         <v>99.6</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:47">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B46">
         <v>88.9</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>431.8</v>
       </c>
     </row>
-    <row r="47" spans="2:47">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B47">
         <v>87</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>442.1</v>
       </c>
     </row>
-    <row r="48" spans="2:47">
+    <row r="48" spans="2:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B48">
         <v>80.900000000000006</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>444.7</v>
       </c>
     </row>
-    <row r="49" spans="2:33">
+    <row r="49" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B49">
         <v>77</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>446.9</v>
       </c>
     </row>
-    <row r="50" spans="2:33">
+    <row r="50" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B50">
         <v>75</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>464.2</v>
       </c>
     </row>
-    <row r="51" spans="2:33">
+    <row r="51" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B51">
         <v>72</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>464.6</v>
       </c>
     </row>
-    <row r="52" spans="2:33">
+    <row r="52" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B52">
         <v>70</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>468.5</v>
       </c>
     </row>
-    <row r="53" spans="2:33">
+    <row r="53" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B53">
         <v>69</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>475.3</v>
       </c>
     </row>
-    <row r="54" spans="2:33">
+    <row r="54" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B54">
         <v>67.400000000000006</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>475.8</v>
       </c>
     </row>
-    <row r="55" spans="2:33">
+    <row r="55" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B55">
         <v>66</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>478.4</v>
       </c>
     </row>
-    <row r="56" spans="2:33">
+    <row r="56" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B56">
         <v>65.8</v>
       </c>
@@ -19859,7 +19859,7 @@
         <v>481.2</v>
       </c>
     </row>
-    <row r="57" spans="2:33">
+    <row r="57" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B57">
         <v>65</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>483.9</v>
       </c>
     </row>
-    <row r="58" spans="2:33">
+    <row r="58" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B58">
         <v>63</v>
       </c>
@@ -20037,7 +20037,7 @@
         <v>489.7</v>
       </c>
     </row>
-    <row r="59" spans="2:33">
+    <row r="59" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B59">
         <v>60</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>495.8</v>
       </c>
     </row>
-    <row r="60" spans="2:33">
+    <row r="60" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B60">
         <v>56</v>
       </c>
@@ -20215,7 +20215,7 @@
         <v>501.6</v>
       </c>
     </row>
-    <row r="61" spans="2:33">
+    <row r="61" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B61">
         <v>53</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>503.5</v>
       </c>
     </row>
-    <row r="62" spans="2:33">
+    <row r="62" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B62">
         <v>50</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>509.6</v>
       </c>
     </row>
-    <row r="63" spans="2:33">
+    <row r="63" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B63">
         <v>49.3</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>522.6</v>
       </c>
     </row>
-    <row r="64" spans="2:33">
+    <row r="64" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B64">
         <v>47</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>524.29999999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:33">
+    <row r="65" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B65">
         <v>46.6</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>526.1</v>
       </c>
     </row>
-    <row r="66" spans="2:33">
+    <row r="66" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B66">
         <v>45</v>
       </c>
@@ -20677,7 +20677,7 @@
         <v>531.9</v>
       </c>
     </row>
-    <row r="67" spans="2:33">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B67">
         <v>44.6</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>536.1</v>
       </c>
     </row>
-    <row r="68" spans="2:33">
+    <row r="68" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B68">
         <v>44</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>553.79999999999995</v>
       </c>
     </row>
-    <row r="69" spans="2:33">
+    <row r="69" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B69">
         <v>42</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>589.5</v>
       </c>
     </row>
-    <row r="70" spans="2:33">
+    <row r="70" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B70">
         <v>40.299999999999997</v>
       </c>
@@ -20901,7 +20901,7 @@
         <v>605.29999999999995</v>
       </c>
     </row>
-    <row r="71" spans="2:33">
+    <row r="71" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B71">
         <v>40</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>629.20000000000005</v>
       </c>
     </row>
-    <row r="72" spans="2:33">
+    <row r="72" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B72">
         <v>39</v>
       </c>
@@ -21013,7 +21013,7 @@
         <v>640.70000000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:33">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B73">
         <v>37</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>659.6</v>
       </c>
     </row>
-    <row r="74" spans="2:33">
+    <row r="74" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B74">
         <v>33.700000000000003</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>662.7</v>
       </c>
     </row>
-    <row r="75" spans="2:33">
+    <row r="75" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B75">
         <v>33</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>676.6</v>
       </c>
     </row>
-    <row r="76" spans="2:33">
+    <row r="76" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B76">
         <v>31</v>
       </c>
@@ -21237,7 +21237,7 @@
         <v>692.6</v>
       </c>
     </row>
-    <row r="77" spans="2:33">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B77">
         <v>30</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>708.1</v>
       </c>
     </row>
-    <row r="78" spans="2:33">
+    <row r="78" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B78">
         <v>29</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>708.9</v>
       </c>
     </row>
-    <row r="79" spans="2:33">
+    <row r="79" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B79">
         <v>24.8</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="80" spans="2:33">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B80">
         <v>24</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>735.9</v>
       </c>
     </row>
-    <row r="81" spans="2:36">
+    <row r="81" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B81">
         <v>22</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>749.1</v>
       </c>
     </row>
-    <row r="82" spans="2:36">
+    <row r="82" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B82">
         <v>21.4</v>
       </c>
@@ -21573,7 +21573,7 @@
         <v>763.5</v>
       </c>
     </row>
-    <row r="83" spans="2:36">
+    <row r="83" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B83">
         <v>20</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>801.6</v>
       </c>
     </row>
-    <row r="84" spans="2:36">
+    <row r="84" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B84">
         <v>19</v>
       </c>
@@ -21685,7 +21685,7 @@
         <v>805.3</v>
       </c>
     </row>
-    <row r="85" spans="2:36">
+    <row r="85" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B85">
         <v>18</v>
       </c>
@@ -21741,7 +21741,7 @@
         <v>822.3</v>
       </c>
     </row>
-    <row r="86" spans="2:36">
+    <row r="86" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B86">
         <v>16</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>843.4</v>
       </c>
     </row>
-    <row r="87" spans="2:36">
+    <row r="87" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B87">
         <v>15</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>881.5</v>
       </c>
     </row>
-    <row r="88" spans="2:36">
+    <row r="88" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B88">
         <v>12.3</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>930.8</v>
       </c>
     </row>
-    <row r="89" spans="2:36" s="1" customFormat="1">
+    <row r="89" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1">
         <v>12</v>
       </c>
@@ -21946,7 +21946,7 @@
       <c r="AI89"/>
       <c r="AJ89"/>
     </row>
-    <row r="90" spans="2:36">
+    <row r="90" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="Z90">
         <v>6.8</v>
       </c>
